--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Block.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Block.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB046FCE-F896-43A0-8739-2B23E47FBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7EB9E4-95EA-48AF-A6CE-94D74BF01B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" r:id="rId1"/>
@@ -2096,7 +2096,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C203" sqref="C203:C207"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
